--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\5.Quinto\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\5.Quinto\TFG\TFG-Madrid-Isla-de-calor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8629723C-2364-4458-8695-260B0A70A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29BB95-08D9-41EB-ABBC-97516D2350DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7CEB8FDA-15B7-4C9A-9EBC-C86B762E97E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tarea</t>
   </si>
@@ -68,27 +68,9 @@
     <t>Analisis distribución de datos (NA´s y disponibles)</t>
   </si>
   <si>
-    <t>Memoria: datos,limpieza, formateado y distribucion</t>
-  </si>
-  <si>
-    <t>Memoria: introduccion</t>
-  </si>
-  <si>
-    <t>Visualización primeras gráficas</t>
-  </si>
-  <si>
     <t>Algoritmos ML</t>
   </si>
   <si>
-    <t>Visualización resultados algoritmos ML</t>
-  </si>
-  <si>
-    <t>Memoria: visualizacion</t>
-  </si>
-  <si>
-    <t>Memoria: algoritmos ML y visualizacion</t>
-  </si>
-  <si>
     <t>Inicio proyecto</t>
   </si>
   <si>
@@ -101,7 +83,41 @@
     <t>naranja --&gt; gonzalo</t>
   </si>
   <si>
-    <t>verde --&gt; jose</t>
+    <t>Aproximaciones 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Aproximaciones 4 y 5</t>
+  </si>
+  <si>
+    <t>Correlaciones y gráficas</t>
+  </si>
+  <si>
+    <t>Código: Retoques y comentarios</t>
+  </si>
+  <si>
+    <t>Memoria: introducción y estado de la cuestión</t>
+  </si>
+  <si>
+    <t>Memoria: Origen y obtención de los datos</t>
+  </si>
+  <si>
+    <t>Memoria: Preprocesado de datos</t>
+  </si>
+  <si>
+    <t>Memoria: Estudio de los datos</t>
+  </si>
+  <si>
+    <t>Memoria: Análisis de datos y extracción de
+información</t>
+  </si>
+  <si>
+    <t>Memoria: Fin análisis</t>
+  </si>
+  <si>
+    <t>Memoria: Retoques y traducciones</t>
+  </si>
+  <si>
+    <t>Memoria: Conclusiones y Trabajo futuro</t>
   </si>
 </sst>
 </file>
@@ -137,10 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,61 +191,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Diagrama Gantt</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -247,9 +211,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$14</c:f>
+              <c:f>Hoja1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Recopilar información/posts/articulos</c:v>
                 </c:pt>
@@ -260,7 +224,7 @@
                   <c:v>Interpretación de datos</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Memoria: introduccion</c:v>
+                  <c:v>Memoria: introducción y estado de la cuestión</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Limpiado de datos</c:v>
@@ -272,32 +236,51 @@
                   <c:v>Analisis distribución de datos (NA´s y disponibles)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Memoria: datos,limpieza, formateado y distribucion</c:v>
+                  <c:v>Memoria: Origen y obtención de los datos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visualización primeras gráficas</c:v>
+                  <c:v>Memoria: Preprocesado de datos</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Memoria: visualizacion</c:v>
+                  <c:v>Correlaciones y gráficas</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Algoritmos ML</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Visualización resultados algoritmos ML</c:v>
+                  <c:v>Memoria: Estudio de los datos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Memoria: algoritmos ML y visualizacion</c:v>
+                  <c:v>Aproximaciones 1, 2, 3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memoria: Análisis de datos y extracción de
+información</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Aproximaciones 4 y 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memoria: Fin análisis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Memoria: Conclusiones y Trabajo futuro</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Código: Retoques y comentarios</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Memoria: Retoques y traducciones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$14</c:f>
+              <c:f>Hoja1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44774</c:v>
                 </c:pt>
@@ -326,23 +309,41 @@
                   <c:v>44872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44875</c:v>
+                  <c:v>44886</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44879</c:v>
+                  <c:v>44886</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44886</c:v>
+                  <c:v>44893</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44900</c:v>
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0594-4DFC-BD03-ACB8C11929E8}"/>
+              <c16:uniqueId val="{00000002-406A-453B-8F07-4DFA6D2BBBEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -374,7 +375,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000004-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -393,7 +394,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000005-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -412,7 +413,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000006-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -422,7 +423,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -431,7 +432,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000007-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -450,7 +451,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000011-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -469,7 +470,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000008-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -488,7 +489,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000009-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -507,12 +508,88 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{0000000A-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-406A-453B-8F07-4DFA6D2BBBEC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-406A-453B-8F07-4DFA6D2BBBEC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-406A-453B-8F07-4DFA6D2BBBEC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-406A-453B-8F07-4DFA6D2BBBEC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -526,12 +603,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{0000000F-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="10"/>
+            <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -545,12 +622,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-0594-4DFC-BD03-ACB8C11929E8}"/>
+                <c16:uniqueId val="{00000010-406A-453B-8F07-4DFA6D2BBBEC}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -562,36 +639,12 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-0594-4DFC-BD03-ACB8C11929E8}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-0594-4DFC-BD03-ACB8C11929E8}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$2:$A$14</c:f>
+              <c:f>Hoja1!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Recopilar información/posts/articulos</c:v>
                 </c:pt>
@@ -602,7 +655,7 @@
                   <c:v>Interpretación de datos</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Memoria: introduccion</c:v>
+                  <c:v>Memoria: introducción y estado de la cuestión</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Limpiado de datos</c:v>
@@ -614,32 +667,51 @@
                   <c:v>Analisis distribución de datos (NA´s y disponibles)</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Memoria: datos,limpieza, formateado y distribucion</c:v>
+                  <c:v>Memoria: Origen y obtención de los datos</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Visualización primeras gráficas</c:v>
+                  <c:v>Memoria: Preprocesado de datos</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Memoria: visualizacion</c:v>
+                  <c:v>Correlaciones y gráficas</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Algoritmos ML</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Visualización resultados algoritmos ML</c:v>
+                  <c:v>Memoria: Estudio de los datos</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Memoria: algoritmos ML y visualizacion</c:v>
+                  <c:v>Aproximaciones 1, 2, 3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Memoria: Análisis de datos y extracción de
+información</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Aproximaciones 4 y 5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memoria: Fin análisis</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Memoria: Conclusiones y Trabajo futuro</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Código: Retoques y comentarios</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Memoria: Retoques y traducciones</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$14</c:f>
+              <c:f>Hoja1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -665,26 +737,44 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0594-4DFC-BD03-ACB8C11929E8}"/>
+              <c16:uniqueId val="{00000003-406A-453B-8F07-4DFA6D2BBBEC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -698,11 +788,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2056961247"/>
-        <c:axId val="2056963327"/>
+        <c:axId val="685741615"/>
+        <c:axId val="685743279"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2056961247"/>
+        <c:axId val="685741615"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -745,7 +835,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056963327"/>
+        <c:crossAx val="685743279"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,10 +843,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056963327"/>
+        <c:axId val="685743279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44949"/>
+          <c:max val="44942"/>
           <c:min val="44774"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -820,7 +910,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2056961247"/>
+        <c:crossAx val="685741615"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,22 +1516,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A877CCBB-FCD1-7089-56A1-898085ADF9B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DF5FF4-8AA2-3FC4-16A3-44BAE28B6070}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1841,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1759,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42FCACA-E71F-4888-8335-53ED31180F61}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1825,13 +1915,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D12" si="0">B4+C4</f>
+        <f t="shared" ref="D4:D11" si="0">B4+C4</f>
         <v>44823</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>44816</v>
@@ -1891,7 +1981,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>44851</v>
@@ -1900,120 +1990,205 @@
         <v>21</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>B9+C9</f>
         <v>44872</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>44872</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>44879</v>
+        <f>B10+C10</f>
+        <v>44886</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
-        <v>44875</v>
+        <v>44886</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>44882</v>
+        <f>B11+C11</f>
+        <v>44900</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>44879</v>
+        <v>44886</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <f>B12+C12</f>
-        <v>44893</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>44886</v>
+        <v>44893</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
       <c r="D13" s="1">
         <f>B13+C13</f>
-        <v>44900</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>44900</v>
+        <v>44896</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <f>B14+C14</f>
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15+C15</f>
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16+C16</f>
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
         <v>44921</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17+C17</f>
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44774</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <f>B18+C18</f>
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>44949</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="B19" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <f>B19+C19</f>
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44928</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1">
+        <f>B20+C20</f>
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44774</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44942</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
